--- a/Output/exposures.xlsx
+++ b/Output/exposures.xlsx
@@ -411,13 +411,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3804729.63702406</v>
+        <v>-10436128.64775467</v>
       </c>
       <c r="D2">
-        <v>3804729.63702406</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-10436128.64775467</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,13 +428,13 @@
         <v>0.25</v>
       </c>
       <c r="C3">
-        <v>7571076.654258135</v>
+        <v>-10397040.47193269</v>
       </c>
       <c r="D3">
-        <v>9897086.094974436</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-2326009.440716301</v>
+        <v>-10397040.47193269</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,13 +445,13 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>3826960.300946621</v>
+        <v>-10356781.45309119</v>
       </c>
       <c r="D4">
-        <v>9330890.007694574</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-5503929.70674794</v>
+        <v>-10356781.45309119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,13 +462,13 @@
         <v>0.75</v>
       </c>
       <c r="C5">
-        <v>7262816.128929831</v>
+        <v>-10313978.3857075</v>
       </c>
       <c r="D5">
-        <v>12968587.86034774</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-5705771.731417905</v>
+        <v>-10313978.3857075</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,13 +479,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3152133.468691265</v>
+        <v>-10271117.6572043</v>
       </c>
       <c r="D6">
-        <v>11945313.47233115</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-8793180.003639892</v>
+        <v>-10271117.6572043</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -496,13 +496,13 @@
         <v>1.25</v>
       </c>
       <c r="C7">
-        <v>6443582.322055834</v>
+        <v>-10228653.36925461</v>
       </c>
       <c r="D7">
-        <v>14771647.77461785</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-8328065.45256203</v>
+        <v>-10228653.36925461</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -513,13 +513,13 @@
         <v>1.5</v>
       </c>
       <c r="C8">
-        <v>2253081.143780107</v>
+        <v>-10186500.49761736</v>
       </c>
       <c r="D8">
-        <v>13345059.31117601</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-11091978.16739589</v>
+        <v>-10186500.49761736</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -530,13 +530,13 @@
         <v>1.75</v>
       </c>
       <c r="C9">
-        <v>5427728.186524005</v>
+        <v>-10143631.84450524</v>
       </c>
       <c r="D9">
-        <v>15600932.08241251</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-10173203.89588851</v>
+        <v>-10143631.84450524</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -547,13 +547,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1328463.405860978</v>
+        <v>-10104137.00204816</v>
       </c>
       <c r="D10">
-        <v>14249711.16701474</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-12921247.76115374</v>
+        <v>-10104137.00204816</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -564,13 +564,13 @@
         <v>2.25</v>
       </c>
       <c r="C11">
-        <v>4681667.076713808</v>
+        <v>-10060155.20073348</v>
       </c>
       <c r="D11">
-        <v>16450533.02575302</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>-11768865.94903921</v>
+        <v>-10060155.20073348</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -581,13 +581,13 @@
         <v>2.5</v>
       </c>
       <c r="C12">
-        <v>657088.9303675349</v>
+        <v>-10015735.50430723</v>
       </c>
       <c r="D12">
-        <v>14725383.84858563</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>-14068294.91821807</v>
+        <v>-10015735.50430723</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -598,13 +598,13 @@
         <v>2.75</v>
       </c>
       <c r="C13">
-        <v>3900338.54477076</v>
+        <v>-9970793.87617307</v>
       </c>
       <c r="D13">
-        <v>16603589.34148283</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>-12703250.79671207</v>
+        <v>-9970793.87617307</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -615,13 +615,13 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>-142864.5113571209</v>
+        <v>-9925362.657926198</v>
       </c>
       <c r="D14">
-        <v>14409930.7229204</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>-14552795.23427754</v>
+        <v>-9925362.657926198</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -632,13 +632,13 @@
         <v>3.25</v>
       </c>
       <c r="C15">
-        <v>3097055.058023097</v>
+        <v>-9880869.227479527</v>
       </c>
       <c r="D15">
-        <v>16058073.05565617</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>-12961017.99763307</v>
+        <v>-9880869.227479527</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,13 +649,13 @@
         <v>3.5</v>
       </c>
       <c r="C16">
-        <v>-804971.757151243</v>
+        <v>-9835080.998856215</v>
       </c>
       <c r="D16">
-        <v>14017815.03673673</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>-14822786.79388798</v>
+        <v>-9835080.998856215</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>3.75</v>
       </c>
       <c r="C17">
-        <v>2532834.882537144</v>
+        <v>-9788672.644888697</v>
       </c>
       <c r="D17">
-        <v>15738753.85340248</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>-13205918.97086533</v>
+        <v>-9788672.644888697</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>-1314519.910599391</v>
+        <v>-9741947.077520497</v>
       </c>
       <c r="D18">
-        <v>13510625.94466647</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>-14825145.85526586</v>
+        <v>-9741947.077520497</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>4.25</v>
       </c>
       <c r="C19">
-        <v>1968370.399037552</v>
+        <v>-9695401.678506861</v>
       </c>
       <c r="D19">
-        <v>14890142.11162494</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>-12921771.71258739</v>
+        <v>-9695401.678506861</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -717,13 +717,13 @@
         <v>4.5</v>
       </c>
       <c r="C20">
-        <v>-1750501.190843182</v>
+        <v>-9648119.088449501</v>
       </c>
       <c r="D20">
-        <v>13068743.48922337</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>-14819244.68006656</v>
+        <v>-9648119.088449501</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,13 +734,13 @@
         <v>4.75</v>
       </c>
       <c r="C21">
-        <v>1618356.647965336</v>
+        <v>-9600162.278436184</v>
       </c>
       <c r="D21">
-        <v>14594248.66091826</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>-12975892.01295293</v>
+        <v>-9600162.278436184</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>-2142424.925133857</v>
+        <v>-9557513.781712029</v>
       </c>
       <c r="D22">
-        <v>12283920.03090058</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>-14426344.95603444</v>
+        <v>-9557513.781712029</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -768,13 +768,13 @@
         <v>5.25</v>
       </c>
       <c r="C23">
-        <v>1235775.876747838</v>
+        <v>-9509130.024750365</v>
       </c>
       <c r="D23">
-        <v>13640165.8907062</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>-12404390.01395837</v>
+        <v>-9509130.024750365</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -785,13 +785,13 @@
         <v>5.5</v>
       </c>
       <c r="C24">
-        <v>-2321602.241605577</v>
+        <v>-9459571.307507358</v>
       </c>
       <c r="D24">
-        <v>11731629.26543356</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>-14053231.50703914</v>
+        <v>-9459571.307507358</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -802,13 +802,13 @@
         <v>5.75</v>
       </c>
       <c r="C25">
-        <v>1123017.41421253</v>
+        <v>-9409817.298589569</v>
       </c>
       <c r="D25">
-        <v>13098918.79066227</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>-11975901.37644974</v>
+        <v>-9409817.298589569</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -819,13 +819,13 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>-2413248.82630334</v>
+        <v>-9359667.804701526</v>
       </c>
       <c r="D26">
-        <v>10878318.62593359</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>-13291567.45223693</v>
+        <v>-9359667.804701526</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -836,13 +836,13 @@
         <v>6.25</v>
       </c>
       <c r="C27">
-        <v>1014940.100077347</v>
+        <v>-9309188.328536652</v>
       </c>
       <c r="D27">
-        <v>12394448.50046141</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>-11379508.40038407</v>
+        <v>-9309188.328536652</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -853,13 +853,13 @@
         <v>6.5</v>
       </c>
       <c r="C28">
-        <v>-2385659.543420715</v>
+        <v>-9258540.71299357</v>
       </c>
       <c r="D28">
-        <v>10443258.87037542</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>-12828918.41379613</v>
+        <v>-9258540.71299357</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -870,13 +870,13 @@
         <v>6.75</v>
       </c>
       <c r="C29">
-        <v>1049333.193450371</v>
+        <v>-9207788.335128676</v>
       </c>
       <c r="D29">
-        <v>11520418.72700138</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>-10471085.533551</v>
+        <v>-9207788.335128676</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -887,13 +887,13 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>-2308427.820298448</v>
+        <v>-9156815.084353756</v>
       </c>
       <c r="D30">
-        <v>9334632.659511084</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>-11643060.47980953</v>
+        <v>-9156815.084353756</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -904,13 +904,13 @@
         <v>7.25</v>
       </c>
       <c r="C31">
-        <v>984798.5445918696</v>
+        <v>-9105258.15482416</v>
       </c>
       <c r="D31">
-        <v>10145701.40279304</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>-9160902.858201176</v>
+        <v>-9105258.15482416</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -921,13 +921,13 @@
         <v>7.5</v>
       </c>
       <c r="C32">
-        <v>-2344325.924832033</v>
+        <v>-9054170.275956947</v>
       </c>
       <c r="D32">
-        <v>7883101.060824436</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>-10227426.98565646</v>
+        <v>-9054170.275956947</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -938,13 +938,13 @@
         <v>7.75</v>
       </c>
       <c r="C33">
-        <v>1069479.488281318</v>
+        <v>-9002682.548770227</v>
       </c>
       <c r="D33">
-        <v>8850528.179631239</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>-7781048.691349926</v>
+        <v>-9002682.548770227</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -955,13 +955,13 @@
         <v>8</v>
       </c>
       <c r="C34">
-        <v>-2185646.620374477</v>
+        <v>-8950993.045130013</v>
       </c>
       <c r="D34">
-        <v>6591029.677026651</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>-8776676.297401117</v>
+        <v>-8950993.045130013</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -972,13 +972,13 @@
         <v>8.25</v>
       </c>
       <c r="C35">
-        <v>1268391.101093525</v>
+        <v>-8898995.363787336</v>
       </c>
       <c r="D35">
-        <v>7606459.019209935</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>-6338067.91811641</v>
+        <v>-8898995.363787336</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -989,13 +989,13 @@
         <v>8.5</v>
       </c>
       <c r="C36">
-        <v>-1913486.823154139</v>
+        <v>-8845272.651921874</v>
       </c>
       <c r="D36">
-        <v>5362731.701374574</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>-7276218.524528706</v>
+        <v>-8845272.651921874</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1006,13 +1006,13 @@
         <v>8.75</v>
       </c>
       <c r="C37">
-        <v>1557384.833374659</v>
+        <v>-8793415.842762161</v>
       </c>
       <c r="D37">
-        <v>6346951.852445064</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>-4789567.01907041</v>
+        <v>-8793415.842762161</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1023,13 +1023,13 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>-1549104.159550885</v>
+        <v>-8741058.737405516</v>
       </c>
       <c r="D38">
-        <v>4069378.511595707</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>-5618482.671146594</v>
+        <v>-8741058.737405516</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1040,13 +1040,13 @@
         <v>9.25</v>
       </c>
       <c r="C39">
-        <v>1942376.919218111</v>
+        <v>-8688854.583305119</v>
       </c>
       <c r="D39">
-        <v>5115652.003250197</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>-3173275.084032084</v>
+        <v>-8688854.583305119</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1057,13 +1057,13 @@
         <v>9.5</v>
       </c>
       <c r="C40">
-        <v>-1097126.734635341</v>
+        <v>-8636744.818849541</v>
       </c>
       <c r="D40">
-        <v>2763398.267920395</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>-3860525.002555739</v>
+        <v>-8636744.818849541</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1074,13 +1074,13 @@
         <v>9.75</v>
       </c>
       <c r="C41">
-        <v>2383118.366929964</v>
+        <v>-8584349.683777606</v>
       </c>
       <c r="D41">
-        <v>3860092.300729058</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>-1476973.93379909</v>
+        <v>-8584349.683777606</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1091,13 +1091,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>-581176.6979247688</v>
+        <v>-8530652.234522128</v>
       </c>
       <c r="D42">
-        <v>1401833.418504975</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>-1983010.116429741</v>
+        <v>-8530652.234522128</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1108,13 +1108,13 @@
         <v>10.25</v>
       </c>
       <c r="C43">
-        <v>2899148.535866416</v>
+        <v>-8477084.181555962</v>
       </c>
       <c r="D43">
-        <v>2971428.591516948</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>-72280.05565053254</v>
+        <v>-8477084.181555962</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/Output/exposures.xlsx
+++ b/Output/exposures.xlsx
@@ -428,13 +428,13 @@
         <v>0.25</v>
       </c>
       <c r="C3">
-        <v>-10397040.47193269</v>
+        <v>-10397011.4472227</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-10397040.47193269</v>
+        <v>-10397011.4472227</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,13 +445,13 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>-10356781.45309119</v>
+        <v>-10356825.28990719</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-10356781.45309119</v>
+        <v>-10356825.28990719</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,13 +462,13 @@
         <v>0.75</v>
       </c>
       <c r="C5">
-        <v>-10313978.3857075</v>
+        <v>-10314171.4063219</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-10313978.3857075</v>
+        <v>-10314171.4063219</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,13 +479,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>-10271117.6572043</v>
+        <v>-10271298.3691</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-10271117.6572043</v>
+        <v>-10271298.3691</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -496,13 +496,13 @@
         <v>1.25</v>
       </c>
       <c r="C7">
-        <v>-10228653.36925461</v>
+        <v>-10229028.31696063</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-10228653.36925461</v>
+        <v>-10229028.31696063</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -513,13 +513,13 @@
         <v>1.5</v>
       </c>
       <c r="C8">
-        <v>-10186500.49761736</v>
+        <v>-10186742.91246112</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>-10186500.49761736</v>
+        <v>-10186742.91246112</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -530,13 +530,13 @@
         <v>1.75</v>
       </c>
       <c r="C9">
-        <v>-10143631.84450524</v>
+        <v>-10143825.57574371</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-10143631.84450524</v>
+        <v>-10143825.57574371</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -547,13 +547,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>-10104137.00204816</v>
+        <v>-10104306.1810456</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-10104137.00204816</v>
+        <v>-10104306.1810456</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -564,13 +564,13 @@
         <v>2.25</v>
       </c>
       <c r="C11">
-        <v>-10060155.20073348</v>
+        <v>-10060265.61832605</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-10060155.20073348</v>
+        <v>-10060265.61832605</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -581,13 +581,13 @@
         <v>2.5</v>
       </c>
       <c r="C12">
-        <v>-10015735.50430723</v>
+        <v>-10016187.84904889</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-10015735.50430723</v>
+        <v>-10016187.84904889</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -598,13 +598,13 @@
         <v>2.75</v>
       </c>
       <c r="C13">
-        <v>-9970793.87617307</v>
+        <v>-9971500.398891745</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>-9970793.87617307</v>
+        <v>-9971500.398891745</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -615,13 +615,13 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>-9925362.657926198</v>
+        <v>-9926122.737198876</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-9925362.657926198</v>
+        <v>-9926122.737198876</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -632,13 +632,13 @@
         <v>3.25</v>
       </c>
       <c r="C15">
-        <v>-9880869.227479527</v>
+        <v>-9881159.842404023</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-9880869.227479527</v>
+        <v>-9881159.842404023</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,13 +649,13 @@
         <v>3.5</v>
       </c>
       <c r="C16">
-        <v>-9835080.998856215</v>
+        <v>-9834973.20995534</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-9835080.998856215</v>
+        <v>-9834973.20995534</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>3.75</v>
       </c>
       <c r="C17">
-        <v>-9788672.644888697</v>
+        <v>-9788346.922783917</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-9788672.644888697</v>
+        <v>-9788346.922783917</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>-9741947.077520497</v>
+        <v>-9741498.25511492</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>-9741947.077520497</v>
+        <v>-9741498.25511492</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>4.25</v>
       </c>
       <c r="C19">
-        <v>-9695401.678506861</v>
+        <v>-9694831.285550224</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>-9695401.678506861</v>
+        <v>-9694831.285550224</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -717,13 +717,13 @@
         <v>4.5</v>
       </c>
       <c r="C20">
-        <v>-9648119.088449501</v>
+        <v>-9647760.702487735</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-9648119.088449501</v>
+        <v>-9647760.702487735</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,13 +734,13 @@
         <v>4.75</v>
       </c>
       <c r="C21">
-        <v>-9600162.278436184</v>
+        <v>-9600069.091786148</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-9600162.278436184</v>
+        <v>-9600069.091786148</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>-9557513.781712029</v>
+        <v>-9557223.272803208</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-9557513.781712029</v>
+        <v>-9557223.272803208</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -768,13 +768,13 @@
         <v>5.25</v>
       </c>
       <c r="C23">
-        <v>-9509130.024750365</v>
+        <v>-9508932.279769044</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-9509130.024750365</v>
+        <v>-9508932.279769044</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -785,13 +785,13 @@
         <v>5.5</v>
       </c>
       <c r="C24">
-        <v>-9459571.307507358</v>
+        <v>-9459392.579533041</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-9459571.307507358</v>
+        <v>-9459392.579533041</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -802,13 +802,13 @@
         <v>5.75</v>
       </c>
       <c r="C25">
-        <v>-9409817.298589569</v>
+        <v>-9409337.829688722</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-9409817.298589569</v>
+        <v>-9409337.829688722</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -819,13 +819,13 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>-9359667.804701526</v>
+        <v>-9359011.143855369</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-9359667.804701526</v>
+        <v>-9359011.143855369</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -836,13 +836,13 @@
         <v>6.25</v>
       </c>
       <c r="C27">
-        <v>-9309188.328536652</v>
+        <v>-9308530.848968115</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-9309188.328536652</v>
+        <v>-9308530.848968115</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -853,13 +853,13 @@
         <v>6.5</v>
       </c>
       <c r="C28">
-        <v>-9258540.71299357</v>
+        <v>-9257833.475043807</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>-9258540.71299357</v>
+        <v>-9257833.475043807</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -870,13 +870,13 @@
         <v>6.75</v>
       </c>
       <c r="C29">
-        <v>-9207788.335128676</v>
+        <v>-9206853.099843351</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-9207788.335128676</v>
+        <v>-9206853.099843351</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -887,13 +887,13 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>-9156815.084353756</v>
+        <v>-9155679.25451434</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-9156815.084353756</v>
+        <v>-9155679.25451434</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -904,13 +904,13 @@
         <v>7.25</v>
       </c>
       <c r="C31">
-        <v>-9105258.15482416</v>
+        <v>-9103915.145418201</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-9105258.15482416</v>
+        <v>-9103915.145418201</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -921,13 +921,13 @@
         <v>7.5</v>
       </c>
       <c r="C32">
-        <v>-9054170.275956947</v>
+        <v>-9052555.126557391</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>-9054170.275956947</v>
+        <v>-9052555.126557391</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -938,13 +938,13 @@
         <v>7.75</v>
       </c>
       <c r="C33">
-        <v>-9002682.548770227</v>
+        <v>-9000897.723067161</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-9002682.548770227</v>
+        <v>-9000897.723067161</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -955,13 +955,13 @@
         <v>8</v>
       </c>
       <c r="C34">
-        <v>-8950993.045130013</v>
+        <v>-8949035.775246693</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>-8950993.045130013</v>
+        <v>-8949035.775246693</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -972,13 +972,13 @@
         <v>8.25</v>
       </c>
       <c r="C35">
-        <v>-8898995.363787336</v>
+        <v>-8896886.156044675</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>-8898995.363787336</v>
+        <v>-8896886.156044675</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -989,13 +989,13 @@
         <v>8.5</v>
       </c>
       <c r="C36">
-        <v>-8845272.651921874</v>
+        <v>-8842824.962756891</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>-8845272.651921874</v>
+        <v>-8842824.962756891</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1006,13 +1006,13 @@
         <v>8.75</v>
       </c>
       <c r="C37">
-        <v>-8793415.842762161</v>
+        <v>-8790898.846114744</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>-8793415.842762161</v>
+        <v>-8790898.846114744</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1023,13 +1023,13 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>-8741058.737405516</v>
+        <v>-8738444.334483758</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>-8741058.737405516</v>
+        <v>-8738444.334483758</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1040,13 +1040,13 @@
         <v>9.25</v>
       </c>
       <c r="C39">
-        <v>-8688854.583305119</v>
+        <v>-8686110.39693913</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>-8688854.583305119</v>
+        <v>-8686110.39693913</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1057,13 +1057,13 @@
         <v>9.5</v>
       </c>
       <c r="C40">
-        <v>-8636744.818849541</v>
+        <v>-8633950.528360158</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>-8636744.818849541</v>
+        <v>-8633950.528360158</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1074,13 +1074,13 @@
         <v>9.75</v>
       </c>
       <c r="C41">
-        <v>-8584349.683777606</v>
+        <v>-8581519.850310663</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>-8584349.683777606</v>
+        <v>-8581519.850310663</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1091,13 +1091,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>-8530652.234522128</v>
+        <v>-8527826.301474785</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>-8530652.234522128</v>
+        <v>-8527826.301474785</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1108,13 +1108,13 @@
         <v>10.25</v>
       </c>
       <c r="C43">
-        <v>-8477084.181555962</v>
+        <v>-8474239.949475439</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>-8477084.181555962</v>
+        <v>-8474239.949475439</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/Output/exposures.xlsx
+++ b/Output/exposures.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,13 +411,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-10436128.64775467</v>
+        <v>12735776.30541055</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>12735776.30541055</v>
       </c>
       <c r="E2">
-        <v>-10436128.64775467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.25</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C3">
-        <v>-10397011.4472227</v>
+        <v>12717487.24535059</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>12717487.24535059</v>
       </c>
       <c r="E3">
-        <v>-10397011.4472227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C4">
-        <v>-10356825.28990719</v>
+        <v>12725089.89949311</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>12725089.89949311</v>
       </c>
       <c r="E4">
-        <v>-10356825.28990719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C5">
-        <v>-10314171.4063219</v>
+        <v>12746581.60815367</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>12746581.60815367</v>
       </c>
       <c r="E5">
-        <v>-10314171.4063219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6">
-        <v>-10271298.3691</v>
+        <v>12744211.77697119</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>12744211.77697119</v>
       </c>
       <c r="E6">
-        <v>-10271298.3691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.25</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="C7">
-        <v>-10229028.31696063</v>
+        <v>12749220.26276999</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>12749220.26276999</v>
       </c>
       <c r="E7">
-        <v>-10229028.31696063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>-10186742.91246112</v>
+        <v>12751788.98506689</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>12751788.98506689</v>
       </c>
       <c r="E8">
-        <v>-10186742.91246112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.75</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="C9">
-        <v>-10143825.57574371</v>
+        <v>12754044.3767143</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>12754044.3767143</v>
       </c>
       <c r="E9">
-        <v>-10143825.57574371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>-10104306.1810456</v>
+        <v>12755740.27578674</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>12755740.27578674</v>
       </c>
       <c r="E10">
-        <v>-10104306.1810456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>-10060265.61832605</v>
+        <v>12754490.75712926</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>12754490.75712926</v>
       </c>
       <c r="E11">
-        <v>-10060265.61832605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.5</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="C12">
-        <v>-10016187.84904889</v>
+        <v>12752960.3749321</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>12752960.3749321</v>
       </c>
       <c r="E12">
-        <v>-10016187.84904889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.75</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C13">
-        <v>-9971500.398891745</v>
+        <v>12753914.81787401</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>12753914.81787401</v>
       </c>
       <c r="E13">
-        <v>-9971500.398891745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>-9926122.737198876</v>
+        <v>12749892.46436154</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>12749892.46436154</v>
       </c>
       <c r="E14">
-        <v>-9926122.737198876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.25</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="C15">
-        <v>-9881159.842404023</v>
+        <v>12750278.17422604</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>12750278.17422604</v>
       </c>
       <c r="E15">
-        <v>-9881159.842404023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.5</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="C16">
-        <v>-9834973.20995534</v>
+        <v>12752253.67120602</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>12752253.67120602</v>
       </c>
       <c r="E16">
-        <v>-9834973.20995534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="C17">
-        <v>-9788346.922783917</v>
+        <v>12755137.42276241</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>12755137.42276241</v>
       </c>
       <c r="E17">
-        <v>-9788346.922783917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="C18">
-        <v>-9741498.25511492</v>
+        <v>12752393.19127669</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>12752393.19127669</v>
       </c>
       <c r="E18">
-        <v>-9741498.25511492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.25</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="C19">
-        <v>-9694831.285550224</v>
+        <v>12755355.65202171</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>12755355.65202171</v>
       </c>
       <c r="E19">
-        <v>-9694831.285550224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="C20">
-        <v>-9647760.702487735</v>
+        <v>12756116.15997707</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>12756116.15997707</v>
       </c>
       <c r="E20">
-        <v>-9647760.702487735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.75</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="C21">
-        <v>-9600069.091786148</v>
+        <v>12757411.49015005</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>12757411.49015005</v>
       </c>
       <c r="E21">
-        <v>-9600069.091786148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C22">
-        <v>-9557223.272803208</v>
+        <v>12757154.98693664</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>12757154.98693664</v>
       </c>
       <c r="E22">
-        <v>-9557223.272803208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="C23">
-        <v>-9508932.279769044</v>
+        <v>12755995.85669288</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>12755995.85669288</v>
       </c>
       <c r="E23">
-        <v>-9508932.279769044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.5</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="C24">
-        <v>-9459392.579533041</v>
+        <v>12760303.61297963</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>12760303.61297963</v>
       </c>
       <c r="E24">
-        <v>-9459392.579533041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.75</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="C25">
-        <v>-9409337.829688722</v>
+        <v>12759455.27704502</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>12759455.27704502</v>
       </c>
       <c r="E25">
-        <v>-9409337.829688722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>-9359011.143855369</v>
+        <v>12767421.14781858</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>12767421.14781858</v>
       </c>
       <c r="E26">
-        <v>-9359011.143855369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6.25</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="C27">
-        <v>-9308530.848968115</v>
+        <v>12768656.98451815</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>12768656.98451815</v>
       </c>
       <c r="E27">
-        <v>-9308530.848968115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6.5</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="C28">
-        <v>-9257833.475043807</v>
+        <v>12766437.26167361</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>12766437.26167361</v>
       </c>
       <c r="E28">
-        <v>-9257833.475043807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6.75</v>
+        <v>2.25</v>
       </c>
       <c r="C29">
-        <v>-9206853.099843351</v>
+        <v>12768224.86746423</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>12768224.86746423</v>
       </c>
       <c r="E29">
-        <v>-9206853.099843351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C30">
-        <v>-9155679.25451434</v>
+        <v>12762204.43798499</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>12762204.43798499</v>
       </c>
       <c r="E30">
-        <v>-9155679.25451434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7.25</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="C31">
-        <v>-9103915.145418201</v>
+        <v>12768379.32828767</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>12768379.32828767</v>
       </c>
       <c r="E31">
-        <v>-9103915.145418201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="C32">
-        <v>-9052555.126557391</v>
+        <v>12771002.69823359</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>12771002.69823359</v>
       </c>
       <c r="E32">
-        <v>-9052555.126557391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7.75</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="C33">
-        <v>-9000897.723067161</v>
+        <v>12773896.16330316</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>12773896.16330316</v>
       </c>
       <c r="E33">
-        <v>-9000897.723067161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="C34">
-        <v>-8949035.775246693</v>
+        <v>12764852.30300236</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>12764852.30300236</v>
       </c>
       <c r="E34">
-        <v>-8949035.775246693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>8.25</v>
+        <v>2.75</v>
       </c>
       <c r="C35">
-        <v>-8896886.156044675</v>
+        <v>12764981.09327529</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>12764981.09327529</v>
       </c>
       <c r="E35">
-        <v>-8896886.156044675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8.5</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="C36">
-        <v>-8842824.962756891</v>
+        <v>12766984.99346516</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>12766984.99346516</v>
       </c>
       <c r="E36">
-        <v>-8842824.962756891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8.75</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="C37">
-        <v>-8790898.846114744</v>
+        <v>12765221.99217511</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>12765221.99217511</v>
       </c>
       <c r="E37">
-        <v>-8790898.846114744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>-8738444.334483758</v>
+        <v>12766189.56588593</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>12766189.56588593</v>
       </c>
       <c r="E38">
-        <v>-8738444.334483758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9.25</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="C39">
-        <v>-8686110.39693913</v>
+        <v>12765250.65867947</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>12765250.65867947</v>
       </c>
       <c r="E39">
-        <v>-8686110.39693913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.5</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="C40">
-        <v>-8633950.528360158</v>
+        <v>12759503.0822218</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>12759503.0822218</v>
       </c>
       <c r="E40">
-        <v>-8633950.528360158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>9.75</v>
+        <v>3.25</v>
       </c>
       <c r="C41">
-        <v>-8581519.850310663</v>
+        <v>12761646.25648675</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>12761646.25648675</v>
       </c>
       <c r="E41">
-        <v>-8581519.850310663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="C42">
-        <v>-8527826.301474785</v>
+        <v>12765846.33231193</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>12765846.33231193</v>
       </c>
       <c r="E42">
-        <v>-8527826.301474785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>10.25</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="C43">
-        <v>-8474239.949475439</v>
+        <v>12771080.87352454</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>12771080.87352454</v>
       </c>
       <c r="E43">
-        <v>-8474239.949475439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,15 +1122,1409 @@
         <v>42</v>
       </c>
       <c r="B44">
+        <v>3.5</v>
+      </c>
+      <c r="C44">
+        <v>12774329.91674423</v>
+      </c>
+      <c r="D44">
+        <v>12774329.91674423</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>3.583333333333333</v>
+      </c>
+      <c r="C45">
+        <v>12782409.87573972</v>
+      </c>
+      <c r="D45">
+        <v>12782409.87573972</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="C46">
+        <v>12773739.69334383</v>
+      </c>
+      <c r="D46">
+        <v>12773739.69334383</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>3.75</v>
+      </c>
+      <c r="C47">
+        <v>12777774.45378891</v>
+      </c>
+      <c r="D47">
+        <v>12777774.45378891</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="C48">
+        <v>12767483.40688356</v>
+      </c>
+      <c r="D48">
+        <v>12767483.40688356</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>3.916666666666667</v>
+      </c>
+      <c r="C49">
+        <v>12762039.16607062</v>
+      </c>
+      <c r="D49">
+        <v>12762039.16607062</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>12764357.94673499</v>
+      </c>
+      <c r="D50">
+        <v>12764357.94673499</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="C51">
+        <v>12769253.89061323</v>
+      </c>
+      <c r="D51">
+        <v>12769253.89061323</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="C52">
+        <v>12766956.38909742</v>
+      </c>
+      <c r="D52">
+        <v>12766956.38909742</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>4.25</v>
+      </c>
+      <c r="C53">
+        <v>12783510.62730309</v>
+      </c>
+      <c r="D53">
+        <v>12783510.62730309</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="C54">
+        <v>12777239.2215651</v>
+      </c>
+      <c r="D54">
+        <v>12777239.2215651</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>4.416666666666666</v>
+      </c>
+      <c r="C55">
+        <v>12778850.56439527</v>
+      </c>
+      <c r="D55">
+        <v>12778850.56439527</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>4.5</v>
+      </c>
+      <c r="C56">
+        <v>12777947.93803107</v>
+      </c>
+      <c r="D56">
+        <v>12777947.93803107</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>4.583333333333333</v>
+      </c>
+      <c r="C57">
+        <v>12779278.21425718</v>
+      </c>
+      <c r="D57">
+        <v>12779278.21425718</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>4.666666666666666</v>
+      </c>
+      <c r="C58">
+        <v>12784470.93194494</v>
+      </c>
+      <c r="D58">
+        <v>12784470.93194494</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>4.75</v>
+      </c>
+      <c r="C59">
+        <v>12788251.86544961</v>
+      </c>
+      <c r="D59">
+        <v>12788251.86544961</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="C60">
+        <v>12775050.10739041</v>
+      </c>
+      <c r="D60">
+        <v>12775050.10739041</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>4.916666666666666</v>
+      </c>
+      <c r="C61">
+        <v>12780506.86838544</v>
+      </c>
+      <c r="D61">
+        <v>12780506.86838544</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>12787314.27947245</v>
+      </c>
+      <c r="D62">
+        <v>12787314.27947245</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>5.083333333333333</v>
+      </c>
+      <c r="C63">
+        <v>12803591.29270569</v>
+      </c>
+      <c r="D63">
+        <v>12803591.29270569</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>5.166666666666666</v>
+      </c>
+      <c r="C64">
+        <v>12804962.8300642</v>
+      </c>
+      <c r="D64">
+        <v>12804962.8300642</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>5.25</v>
+      </c>
+      <c r="C65">
+        <v>12811156.04533793</v>
+      </c>
+      <c r="D65">
+        <v>12811156.04533793</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="C66">
+        <v>12821583.35311665</v>
+      </c>
+      <c r="D66">
+        <v>12821583.35311665</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>5.416666666666666</v>
+      </c>
+      <c r="C67">
+        <v>12821806.39564874</v>
+      </c>
+      <c r="D67">
+        <v>12821806.39564874</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>5.5</v>
+      </c>
+      <c r="C68">
+        <v>12830272.57845356</v>
+      </c>
+      <c r="D68">
+        <v>12830272.57845356</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>5.583333333333333</v>
+      </c>
+      <c r="C69">
+        <v>12846476.2756674</v>
+      </c>
+      <c r="D69">
+        <v>12846476.2756674</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="C70">
+        <v>12841883.77495071</v>
+      </c>
+      <c r="D70">
+        <v>12841883.77495071</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>5.75</v>
+      </c>
+      <c r="C71">
+        <v>12857920.50811605</v>
+      </c>
+      <c r="D71">
+        <v>12857920.50811605</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="C72">
+        <v>12859828.88240242</v>
+      </c>
+      <c r="D72">
+        <v>12859828.88240242</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>5.916666666666666</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>6.083333333333333</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>6.166666666666666</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>6.25</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>6.416666666666666</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>6.5</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>6.583333333333333</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>6.666666666666666</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>6.75</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>6.916666666666666</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>7.166666666666666</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>7.25</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>7.416666666666666</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>7.5</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>7.666666666666666</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>7.75</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>7.916666666666666</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>8.083333333333332</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>8.25</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>8.416666666666666</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>8.5</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>8.583333333333332</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>8.75</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>8.833333333333332</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>8.916666666666666</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>9.083333333333332</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>9.166666666666666</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>9.25</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>9.333333333333332</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>9.416666666666666</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>9.5</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>9.583333333333332</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>9.666666666666666</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>9.75</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>9.833333333333332</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>9.916666666666666</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>10.08333333333333</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>10.16666666666667</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>10.25</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
         <v>10.27123287671233</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
         <v>0</v>
       </c>
     </row>

--- a/Output/exposures.xlsx
+++ b/Output/exposures.xlsx
@@ -411,10 +411,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12735776.30541055</v>
+        <v>12735776.30541056</v>
       </c>
       <c r="D2">
-        <v>12735776.30541055</v>
+        <v>12735776.30541056</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -428,10 +428,10 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C3">
-        <v>12717487.24535059</v>
+        <v>12716524.85763664</v>
       </c>
       <c r="D3">
-        <v>12717487.24535059</v>
+        <v>12716524.85763664</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C4">
-        <v>12725089.89949311</v>
+        <v>12723378.27056362</v>
       </c>
       <c r="D4">
-        <v>12725089.89949311</v>
+        <v>12723378.27056362</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -462,10 +462,10 @@
         <v>0.25</v>
       </c>
       <c r="C5">
-        <v>12746581.60815367</v>
+        <v>12744430.2047092</v>
       </c>
       <c r="D5">
-        <v>12746581.60815367</v>
+        <v>12744430.2047092</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -479,10 +479,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C6">
-        <v>12744211.77697119</v>
+        <v>12739882.83810054</v>
       </c>
       <c r="D6">
-        <v>12744211.77697119</v>
+        <v>12739882.83810054</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -496,10 +496,10 @@
         <v>0.4166666666666666</v>
       </c>
       <c r="C7">
-        <v>12749220.26276999</v>
+        <v>12739502.07319856</v>
       </c>
       <c r="D7">
-        <v>12749220.26276999</v>
+        <v>12739502.07319856</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -513,10 +513,10 @@
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>12751788.98506689</v>
+        <v>12742131.09441802</v>
       </c>
       <c r="D8">
-        <v>12751788.98506689</v>
+        <v>12742131.09441802</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0.5833333333333333</v>
       </c>
       <c r="C9">
-        <v>12754044.3767143</v>
+        <v>12749358.03175509</v>
       </c>
       <c r="D9">
-        <v>12754044.3767143</v>
+        <v>12749358.03175509</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>12755740.27578674</v>
+        <v>12749763.6578912</v>
       </c>
       <c r="D10">
-        <v>12755740.27578674</v>
+        <v>12749763.6578912</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>0.75</v>
       </c>
       <c r="C11">
-        <v>12754490.75712926</v>
+        <v>12747658.67825953</v>
       </c>
       <c r="D11">
-        <v>12754490.75712926</v>
+        <v>12747658.67825953</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>0.8333333333333333</v>
       </c>
       <c r="C12">
-        <v>12752960.3749321</v>
+        <v>12748287.48436681</v>
       </c>
       <c r="D12">
-        <v>12752960.3749321</v>
+        <v>12748287.48436681</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="C13">
-        <v>12753914.81787401</v>
+        <v>12746813.22617442</v>
       </c>
       <c r="D13">
-        <v>12753914.81787401</v>
+        <v>12746813.22617442</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>12749892.46436154</v>
+        <v>12764579.0520548</v>
       </c>
       <c r="D14">
-        <v>12749892.46436154</v>
+        <v>12764579.0520548</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -632,10 +632,10 @@
         <v>1.083333333333333</v>
       </c>
       <c r="C15">
-        <v>12750278.17422604</v>
+        <v>12765834.41970485</v>
       </c>
       <c r="D15">
-        <v>12750278.17422604</v>
+        <v>12765834.41970485</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>1.166666666666667</v>
       </c>
       <c r="C16">
-        <v>12752253.67120602</v>
+        <v>12773434.98164881</v>
       </c>
       <c r="D16">
-        <v>12752253.67120602</v>
+        <v>12773434.98164881</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>1.25</v>
       </c>
       <c r="C17">
-        <v>12755137.42276241</v>
+        <v>12776968.98366845</v>
       </c>
       <c r="D17">
-        <v>12755137.42276241</v>
+        <v>12776968.98366845</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>1.333333333333333</v>
       </c>
       <c r="C18">
-        <v>12752393.19127669</v>
+        <v>12784019.78648923</v>
       </c>
       <c r="D18">
-        <v>12752393.19127669</v>
+        <v>12784019.78648923</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -700,10 +700,10 @@
         <v>1.416666666666667</v>
       </c>
       <c r="C19">
-        <v>12755355.65202171</v>
+        <v>12775153.08784686</v>
       </c>
       <c r="D19">
-        <v>12755355.65202171</v>
+        <v>12775153.08784686</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -717,10 +717,10 @@
         <v>1.5</v>
       </c>
       <c r="C20">
-        <v>12756116.15997707</v>
+        <v>12798116.07230245</v>
       </c>
       <c r="D20">
-        <v>12756116.15997707</v>
+        <v>12798116.07230245</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>1.583333333333333</v>
       </c>
       <c r="C21">
-        <v>12757411.49015005</v>
+        <v>12788801.62632752</v>
       </c>
       <c r="D21">
-        <v>12757411.49015005</v>
+        <v>12788801.62632752</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>1.666666666666667</v>
       </c>
       <c r="C22">
-        <v>12757154.98693664</v>
+        <v>12822593.95129539</v>
       </c>
       <c r="D22">
-        <v>12757154.98693664</v>
+        <v>12822593.95129539</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -768,10 +768,10 @@
         <v>1.75</v>
       </c>
       <c r="C23">
-        <v>12755995.85669288</v>
+        <v>12800586.07851382</v>
       </c>
       <c r="D23">
-        <v>12755995.85669288</v>
+        <v>12800586.07851382</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>1.833333333333333</v>
       </c>
       <c r="C24">
-        <v>12760303.61297963</v>
+        <v>12785887.30008143</v>
       </c>
       <c r="D24">
-        <v>12760303.61297963</v>
+        <v>12785887.30008143</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -802,10 +802,10 @@
         <v>1.916666666666667</v>
       </c>
       <c r="C25">
-        <v>12759455.27704502</v>
+        <v>12796765.74291875</v>
       </c>
       <c r="D25">
-        <v>12759455.27704502</v>
+        <v>12796765.74291875</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>12767421.14781858</v>
+        <v>12786908.74541788</v>
       </c>
       <c r="D26">
-        <v>12767421.14781858</v>
+        <v>12786908.74541788</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -836,10 +836,10 @@
         <v>2.083333333333333</v>
       </c>
       <c r="C27">
-        <v>12768656.98451815</v>
+        <v>12772558.07720692</v>
       </c>
       <c r="D27">
-        <v>12768656.98451815</v>
+        <v>12772558.07720692</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>2.166666666666667</v>
       </c>
       <c r="C28">
-        <v>12766437.26167361</v>
+        <v>12761363.04759391</v>
       </c>
       <c r="D28">
-        <v>12766437.26167361</v>
+        <v>12761363.04759391</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>2.25</v>
       </c>
       <c r="C29">
-        <v>12768224.86746423</v>
+        <v>12762728.38992478</v>
       </c>
       <c r="D29">
-        <v>12768224.86746423</v>
+        <v>12762728.38992478</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>2.333333333333333</v>
       </c>
       <c r="C30">
-        <v>12762204.43798499</v>
+        <v>12786187.60348766</v>
       </c>
       <c r="D30">
-        <v>12762204.43798499</v>
+        <v>12786187.60348766</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>2.416666666666667</v>
       </c>
       <c r="C31">
-        <v>12768379.32828767</v>
+        <v>12792193.80953125</v>
       </c>
       <c r="D31">
-        <v>12768379.32828767</v>
+        <v>12792193.80953125</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>2.5</v>
       </c>
       <c r="C32">
-        <v>12771002.69823359</v>
+        <v>12806236.04646959</v>
       </c>
       <c r="D32">
-        <v>12771002.69823359</v>
+        <v>12806236.04646959</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>2.583333333333333</v>
       </c>
       <c r="C33">
-        <v>12773896.16330316</v>
+        <v>12807419.38663841</v>
       </c>
       <c r="D33">
-        <v>12773896.16330316</v>
+        <v>12807419.38663841</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>2.666666666666667</v>
       </c>
       <c r="C34">
-        <v>12764852.30300236</v>
+        <v>12840249.36028472</v>
       </c>
       <c r="D34">
-        <v>12764852.30300236</v>
+        <v>12840249.36028472</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -972,10 +972,10 @@
         <v>2.75</v>
       </c>
       <c r="C35">
-        <v>12764981.09327529</v>
+        <v>12832193.91877061</v>
       </c>
       <c r="D35">
-        <v>12764981.09327529</v>
+        <v>12832193.91877061</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>2.833333333333333</v>
       </c>
       <c r="C36">
-        <v>12766984.99346516</v>
+        <v>12830924.46901474</v>
       </c>
       <c r="D36">
-        <v>12766984.99346516</v>
+        <v>12830924.46901474</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>2.916666666666667</v>
       </c>
       <c r="C37">
-        <v>12765221.99217511</v>
+        <v>12848671.48279858</v>
       </c>
       <c r="D37">
-        <v>12765221.99217511</v>
+        <v>12848671.48279858</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>12766189.56588593</v>
+        <v>12851478.05351636</v>
       </c>
       <c r="D38">
-        <v>12766189.56588593</v>
+        <v>12851478.05351636</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>3.083333333333333</v>
       </c>
       <c r="C39">
-        <v>12765250.65867947</v>
+        <v>12853041.49722443</v>
       </c>
       <c r="D39">
-        <v>12765250.65867947</v>
+        <v>12853041.49722443</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>3.166666666666667</v>
       </c>
       <c r="C40">
-        <v>12759503.0822218</v>
+        <v>12845246.19964986</v>
       </c>
       <c r="D40">
-        <v>12759503.0822218</v>
+        <v>12845246.19964986</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>3.25</v>
       </c>
       <c r="C41">
-        <v>12761646.25648675</v>
+        <v>12849571.35716379</v>
       </c>
       <c r="D41">
-        <v>12761646.25648675</v>
+        <v>12849571.35716379</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>3.333333333333333</v>
       </c>
       <c r="C42">
-        <v>12765846.33231193</v>
+        <v>12835564.29289348</v>
       </c>
       <c r="D42">
-        <v>12765846.33231193</v>
+        <v>12835564.29289348</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>3.416666666666667</v>
       </c>
       <c r="C43">
-        <v>12771080.87352454</v>
+        <v>12827791.41852526</v>
       </c>
       <c r="D43">
-        <v>12771080.87352454</v>
+        <v>12827791.41852526</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>3.5</v>
       </c>
       <c r="C44">
-        <v>12774329.91674423</v>
+        <v>12794984.35032391</v>
       </c>
       <c r="D44">
-        <v>12774329.91674423</v>
+        <v>12794984.35032391</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>3.583333333333333</v>
       </c>
       <c r="C45">
-        <v>12782409.87573972</v>
+        <v>12787748.89156946</v>
       </c>
       <c r="D45">
-        <v>12782409.87573972</v>
+        <v>12787748.89156946</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>3.666666666666667</v>
       </c>
       <c r="C46">
-        <v>12773739.69334383</v>
+        <v>12792492.83073065</v>
       </c>
       <c r="D46">
-        <v>12773739.69334383</v>
+        <v>12792492.83073065</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>3.75</v>
       </c>
       <c r="C47">
-        <v>12777774.45378891</v>
+        <v>12804720.35611357</v>
       </c>
       <c r="D47">
-        <v>12777774.45378891</v>
+        <v>12804720.35611357</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>3.833333333333333</v>
       </c>
       <c r="C48">
-        <v>12767483.40688356</v>
+        <v>12787003.331139</v>
       </c>
       <c r="D48">
-        <v>12767483.40688356</v>
+        <v>12787003.331139</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>3.916666666666667</v>
       </c>
       <c r="C49">
-        <v>12762039.16607062</v>
+        <v>12795578.71113569</v>
       </c>
       <c r="D49">
-        <v>12762039.16607062</v>
+        <v>12795578.71113569</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>12764357.94673499</v>
+        <v>12814666.4618025</v>
       </c>
       <c r="D50">
-        <v>12764357.94673499</v>
+        <v>12814666.4618025</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>4.083333333333333</v>
       </c>
       <c r="C51">
-        <v>12769253.89061323</v>
+        <v>12791908.53404411</v>
       </c>
       <c r="D51">
-        <v>12769253.89061323</v>
+        <v>12791908.53404411</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1261,10 +1261,10 @@
         <v>4.166666666666666</v>
       </c>
       <c r="C52">
-        <v>12766956.38909742</v>
+        <v>12820554.96146037</v>
       </c>
       <c r="D52">
-        <v>12766956.38909742</v>
+        <v>12820554.96146037</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>4.25</v>
       </c>
       <c r="C53">
-        <v>12783510.62730309</v>
+        <v>12826350.99885867</v>
       </c>
       <c r="D53">
-        <v>12783510.62730309</v>
+        <v>12826350.99885867</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1295,10 +1295,10 @@
         <v>4.333333333333333</v>
       </c>
       <c r="C54">
-        <v>12777239.2215651</v>
+        <v>12815791.65879046</v>
       </c>
       <c r="D54">
-        <v>12777239.2215651</v>
+        <v>12815791.65879046</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>4.416666666666666</v>
       </c>
       <c r="C55">
-        <v>12778850.56439527</v>
+        <v>12821196.55837781</v>
       </c>
       <c r="D55">
-        <v>12778850.56439527</v>
+        <v>12821196.55837781</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>4.5</v>
       </c>
       <c r="C56">
-        <v>12777947.93803107</v>
+        <v>12812706.33324816</v>
       </c>
       <c r="D56">
-        <v>12777947.93803107</v>
+        <v>12812706.33324816</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1346,10 +1346,10 @@
         <v>4.583333333333333</v>
       </c>
       <c r="C57">
-        <v>12779278.21425718</v>
+        <v>12784791.70271798</v>
       </c>
       <c r="D57">
-        <v>12779278.21425718</v>
+        <v>12784791.70271798</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1363,10 +1363,10 @@
         <v>4.666666666666666</v>
       </c>
       <c r="C58">
-        <v>12784470.93194494</v>
+        <v>12781807.83625341</v>
       </c>
       <c r="D58">
-        <v>12784470.93194494</v>
+        <v>12781807.83625341</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1380,10 +1380,10 @@
         <v>4.75</v>
       </c>
       <c r="C59">
-        <v>12788251.86544961</v>
+        <v>12777009.43547339</v>
       </c>
       <c r="D59">
-        <v>12788251.86544961</v>
+        <v>12777009.43547339</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>4.833333333333333</v>
       </c>
       <c r="C60">
-        <v>12775050.10739041</v>
+        <v>12791625.45352776</v>
       </c>
       <c r="D60">
-        <v>12775050.10739041</v>
+        <v>12791625.45352776</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>4.916666666666666</v>
       </c>
       <c r="C61">
-        <v>12780506.86838544</v>
+        <v>12779241.63269174</v>
       </c>
       <c r="D61">
-        <v>12780506.86838544</v>
+        <v>12779241.63269174</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>5</v>
       </c>
       <c r="C62">
-        <v>12787314.27947245</v>
+        <v>12810100.76395941</v>
       </c>
       <c r="D62">
-        <v>12787314.27947245</v>
+        <v>12810100.76395941</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         <v>5.083333333333333</v>
       </c>
       <c r="C63">
-        <v>12803591.29270569</v>
+        <v>12850438.08679785</v>
       </c>
       <c r="D63">
-        <v>12803591.29270569</v>
+        <v>12850438.08679785</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         <v>5.166666666666666</v>
       </c>
       <c r="C64">
-        <v>12804962.8300642</v>
+        <v>12847923.49194783</v>
       </c>
       <c r="D64">
-        <v>12804962.8300642</v>
+        <v>12847923.49194783</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>5.25</v>
       </c>
       <c r="C65">
-        <v>12811156.04533793</v>
+        <v>12839602.65278904</v>
       </c>
       <c r="D65">
-        <v>12811156.04533793</v>
+        <v>12839602.65278904</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>5.333333333333333</v>
       </c>
       <c r="C66">
-        <v>12821583.35311665</v>
+        <v>12892414.65354977</v>
       </c>
       <c r="D66">
-        <v>12821583.35311665</v>
+        <v>12892414.65354977</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1516,10 +1516,10 @@
         <v>5.416666666666666</v>
       </c>
       <c r="C67">
-        <v>12821806.39564874</v>
+        <v>12962802.23970497</v>
       </c>
       <c r="D67">
-        <v>12821806.39564874</v>
+        <v>12962802.23970497</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>5.5</v>
       </c>
       <c r="C68">
-        <v>12830272.57845356</v>
+        <v>12963872.80794267</v>
       </c>
       <c r="D68">
-        <v>12830272.57845356</v>
+        <v>12963872.80794267</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1550,10 +1550,10 @@
         <v>5.583333333333333</v>
       </c>
       <c r="C69">
-        <v>12846476.2756674</v>
+        <v>12912163.13114035</v>
       </c>
       <c r="D69">
-        <v>12846476.2756674</v>
+        <v>12912163.13114035</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>5.666666666666666</v>
       </c>
       <c r="C70">
-        <v>12841883.77495071</v>
+        <v>12948235.2739925</v>
       </c>
       <c r="D70">
-        <v>12841883.77495071</v>
+        <v>12948235.2739925</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>5.75</v>
       </c>
       <c r="C71">
-        <v>12857920.50811605</v>
+        <v>12953780.06981119</v>
       </c>
       <c r="D71">
-        <v>12857920.50811605</v>
+        <v>12953780.06981119</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1601,10 +1601,10 @@
         <v>5.833333333333333</v>
       </c>
       <c r="C72">
-        <v>12859828.88240242</v>
+        <v>12930133.64636343</v>
       </c>
       <c r="D72">
-        <v>12859828.88240242</v>
+        <v>12930133.64636343</v>
       </c>
       <c r="E72">
         <v>0</v>
